--- a/biology/Biochimie/Vicine/Vicine.xlsx
+++ b/biology/Biochimie/Vicine/Vicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vicine est un alcaloïde glucosidique présent principalement chez la fève (Vicia faba)[2].
-La vicine est toxique pour les personnes qui ont une carence héréditaire de l'enzyme glucose-6-phosphate déshydrogénase, chez qui elle cause une anémie hémolytique, appelée « favisme ». La formation de la vicine chez Vicia faba a été étudiée, mais cette formation naturelle n'a pas encore été élucidée[3].
+La vicine est un alcaloïde glucosidique présent principalement chez la fève (Vicia faba).
+La vicine est toxique pour les personnes qui ont une carence héréditaire de l'enzyme glucose-6-phosphate déshydrogénase, chez qui elle cause une anémie hémolytique, appelée « favisme ». La formation de la vicine chez Vicia faba a été étudiée, mais cette formation naturelle n'a pas encore été élucidée.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vicine a été initialement isolée en 1870 à partir des graines de Vicia sativa par une méthode d'extraction à l'acide sulfurique suivie d'une précipitation au sulfate de mercure(II) (HgSO4). Par la suite, on a trouvé la vicine chez d'autres espèces du genre Vicia (dont Vicia faba), dans le jus de betterave et dans les pois. La structure chimique du composé a été construite progressivement. D'abord, la nature glycosidique du composé a été reconnue en 1896. La même année on a isolé l'aglycone de la vicine, la divicine (en). Au début du XXe siècle, la structure pyrimidine a été reconnue. Malgré ces premiers succès, la formule correcte de la vicine, à savoir le 2,4-diamino-6-oxypyrimidine-5-(ß-d-glucopyranoside), n'a été déterminée qu'en 1953[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vicine a été initialement isolée en 1870 à partir des graines de Vicia sativa par une méthode d'extraction à l'acide sulfurique suivie d'une précipitation au sulfate de mercure(II) (HgSO4). Par la suite, on a trouvé la vicine chez d'autres espèces du genre Vicia (dont Vicia faba), dans le jus de betterave et dans les pois. La structure chimique du composé a été construite progressivement. D'abord, la nature glycosidique du composé a été reconnue en 1896. La même année on a isolé l'aglycone de la vicine, la divicine (en). Au début du XXe siècle, la structure pyrimidine a été reconnue. Malgré ces premiers succès, la formule correcte de la vicine, à savoir le 2,4-diamino-6-oxypyrimidine-5-(ß-d-glucopyranoside), n'a été déterminée qu'en 1953.
 </t>
         </is>
       </c>
